--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,9 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區中正段10980000地號</t>
+  </si>
+  <si>
+    <t>25911CEDARBLUFFLAGUNAHILLSCA.92653U.S.A</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>詹凱臣</t>
+  </si>
+  <si>
+    <t>詹凱臣詹蔡碧蘭</t>
+  </si>
+  <si>
+    <t>40年05月11曰</t>
+  </si>
+  <si>
+    <t>81年06月15日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmp4bd81</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,39 +128,6 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區中正段1098-0000 地號</t>
-  </si>
-  <si>
-    <t>25911 CEDARBLUFF LAGUNA HILLS CA. 92653 U.S.A</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>詹凱臣</t>
-  </si>
-  <si>
-    <t>詹凱臣 詹蔡碧蘭</t>
-  </si>
-  <si>
-    <t>40年05月 11曰</t>
-  </si>
-  <si>
-    <t>81年06月 15日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>廠牌型號</t>
   </si>
   <si>
@@ -95,16 +146,16 @@
     <t>詹蔡碧蘭</t>
   </si>
   <si>
-    <t>92年11月 15曰</t>
-  </si>
-  <si>
-    <t>100 年 09 月15曰</t>
-  </si>
-  <si>
-    <t>(超過五年；請 領國外車牌）</t>
-  </si>
-  <si>
-    <t>1,323,900(11 領國外車牌）</t>
+    <t>92年11月15曰</t>
+  </si>
+  <si>
+    <t>100年09月15曰</t>
+  </si>
+  <si>
+    <t>(超過五年請領國外車牌）</t>
+  </si>
+  <si>
+    <t>1323900(11領國外車牌）</t>
   </si>
   <si>
     <t>幣別</t>
@@ -116,25 +167,25 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存 放機構 (應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>FIRST GENERAL BANK</t>
-  </si>
-  <si>
-    <t>EAST WEST BANK</t>
-  </si>
-  <si>
-    <t>CAPITAL ONE SOURCE</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>FIRSTGENERALBANK</t>
+  </si>
+  <si>
+    <t>EASTWESTBANK</t>
+  </si>
+  <si>
+    <t>CAPITALONESOURCE</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北市第五信用合作社吉 林分社</t>
-  </si>
-  <si>
-    <t>種 類</t>
+    <t>台北市第五信用合作社吉林分社</t>
+  </si>
+  <si>
+    <t>種類</t>
   </si>
   <si>
     <t>定期存款</t>
@@ -143,18 +194,12 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>新臺幣總額或折合 新臺 幣總額</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -170,25 +215,25 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>AEGON MOtEY MARKET</t>
-  </si>
-  <si>
-    <t>MSTANLEY MIDCAP GWTH</t>
-  </si>
-  <si>
-    <t>WMC DIVERSIFIED EQTY VP</t>
-  </si>
-  <si>
-    <t>WMC DIVERSIFIED GROW VP</t>
-  </si>
-  <si>
-    <t>WRL LIFE INS.</t>
+    <t>AEGONMOtEYMARKET</t>
+  </si>
+  <si>
+    <t>MSTANLEYMIDCAPGWTH</t>
+  </si>
+  <si>
+    <t>WMCDIVERSIFIEDEQTYVP</t>
+  </si>
+  <si>
+    <t>WMCDIVERSIFIEDGROWVP</t>
+  </si>
+  <si>
+    <t>WRLLIFEINS.</t>
   </si>
   <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -203,9 +248,6 @@
     <t>(無法計算）</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -224,22 +266,22 @@
     <t>LOAN</t>
   </si>
   <si>
-    <t>KAISER FEDERAL BANK</t>
-  </si>
-  <si>
-    <t>CHASE BANK</t>
-  </si>
-  <si>
-    <t>97年09月 15闩</t>
-  </si>
-  <si>
-    <t>96年11月 15 H</t>
-  </si>
-  <si>
-    <t>93年06月 15曰</t>
-  </si>
-  <si>
-    <t>98年06月 15日</t>
+    <t>KAISERFEDERALBANK</t>
+  </si>
+  <si>
+    <t>CHASEBANK</t>
+  </si>
+  <si>
+    <t>97年09月15闩</t>
+  </si>
+  <si>
+    <t>96年11月15H</t>
+  </si>
+  <si>
+    <t>93年06月15曰</t>
+  </si>
+  <si>
+    <t>98年06月15日</t>
   </si>
   <si>
     <t>貸款</t>
@@ -257,46 +299,46 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>T&amp;C DEVELOPMB^T INC.</t>
-  </si>
-  <si>
-    <t>T&amp;C DEVELOPMENT INC.</t>
-  </si>
-  <si>
-    <t>FIRST GENZRAL BANK</t>
-  </si>
-  <si>
-    <t>ROYAL BUSINESS BANK</t>
+    <t>T&amp;CDEVELOPMBTINC.</t>
+  </si>
+  <si>
+    <t>T&amp;CDEVELOPMENTINC.</t>
+  </si>
+  <si>
+    <t>FIRSTGENZRALBANK</t>
+  </si>
+  <si>
+    <t>ROYALBUSINESSBANK</t>
   </si>
   <si>
     <t>養樂多（股）有限公司</t>
   </si>
   <si>
-    <t>51 COLUMBIA, ALISO VIEJO, CA. U.S.A 51 COLUMBIA, ALISO VIEJO, CA. U.S.A</t>
-  </si>
-  <si>
-    <t>14 MASON, IRVINE CA. U.S.A 14 MASON, IRVINE CA. U.S. A</t>
-  </si>
-  <si>
-    <t>ROLAND HEIGHTS, CA. U.S.A ROLAND HEIGHTS, CA. U.S.A</t>
-  </si>
-  <si>
-    <t>LOS ANGELES, CA. U.S.A LOS ANGELES, CA. U.S.A</t>
+    <t>51COLUMBIAALISOVIEJOCA.U.S.A51COLUMBIAALISOVIEJOCA.U.S.A</t>
+  </si>
+  <si>
+    <t>14MASONIRVINECA.U.S.A14MASONIRVINECA.U.S.A</t>
+  </si>
+  <si>
+    <t>ROLANDHEIGHTSCA.U.S.AROLANDHEIGHTSCA.U.S.A</t>
+  </si>
+  <si>
+    <t>LOSANGELESCA.U.S.ALOSANGELESCA.U.S.A</t>
   </si>
   <si>
     <t>臺北市松江路261號3樓</t>
   </si>
   <si>
-    <t>86年09月 15日</t>
-  </si>
-  <si>
-    <t>98年05月 15日</t>
-  </si>
-  <si>
-    <t>100年09月 15日</t>
-  </si>
-  <si>
-    <t>99年03月 15曰</t>
+    <t>86年09月15日</t>
+  </si>
+  <si>
+    <t>98年05月15日</t>
+  </si>
+  <si>
+    <t>100年09月15日</t>
+  </si>
+  <si>
+    <t>99年03月15曰</t>
   </si>
   <si>
     <t>投資</t>
@@ -658,13 +700,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,57 +728,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>4.19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>287.99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -754,25 +859,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -780,25 +885,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>287.99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -816,22 +921,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -839,22 +944,22 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>5800</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -862,22 +967,22 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>3500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -895,16 +1000,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -914,22 +1019,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -937,16 +1042,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>185925</v>
@@ -960,16 +1065,16 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>321600</v>
@@ -983,16 +1088,16 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>85425</v>
@@ -1006,16 +1111,16 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1027,16 +1132,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1058,25 +1163,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1084,13 +1189,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>391.15</v>
@@ -1099,7 +1204,7 @@
         <v>20.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>239473.84</v>
@@ -1110,13 +1215,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>77.52</v>
@@ -1125,7 +1230,7 @@
         <v>47.57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
         <v>108489.97</v>
@@ -1136,13 +1241,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>135.13</v>
@@ -1151,7 +1256,7 @@
         <v>23.19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2">
         <v>92192.42</v>
@@ -1162,13 +1267,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>477.24</v>
@@ -1177,7 +1282,7 @@
         <v>12.7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2">
         <v>178313.09</v>
@@ -1198,16 +1303,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1215,16 +1320,16 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1232,13 +1337,13 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
         <v>294200</v>
@@ -1259,22 +1364,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1282,22 +1387,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1305,22 +1410,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1328,22 +1433,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1351,22 +1456,22 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1384,22 +1489,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1407,22 +1512,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1430,22 +1535,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1453,22 +1558,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1476,22 +1581,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1499,22 +1604,22 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -71,18 +71,30 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區中正段10980000地號</t>
+  </si>
+  <si>
     <t>25911CEDARBLUFFLAGUNAHILLSCA.92653U.S.A</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
+    <t>詹凱臣</t>
+  </si>
+  <si>
     <t>詹凱臣詹蔡碧蘭</t>
   </si>
   <si>
+    <t>40年05月11曰</t>
+  </si>
+  <si>
     <t>81年06月15日</t>
   </si>
   <si>
+    <t>繼承</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -96,9 +108,6 @@
   </si>
   <si>
     <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>詹凱臣</t>
   </si>
   <si>
     <t>tmp4bd81</t>
@@ -619,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,54 +686,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>287.99</v>
+        <v>4.19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1760</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>287.99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>287.99</v>
       </c>
     </row>
@@ -735,33 +797,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
         <v>287.99</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>287.99</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,45 +921,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>5800</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2">
+        <v>5800</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
         <v>3500</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -826,6 +991,499 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>185925</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5469913.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>321600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9461472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>85425</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2513203.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>29939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>391.15</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20.81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1">
+        <v>239473.84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2">
+        <v>391.15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>239473.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>77.52</v>
+      </c>
+      <c r="F3" s="2">
+        <v>47.57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>108489.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>135.13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23.19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>92192.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>477.24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>178313.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>294200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1450000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>160000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -838,515 +1496,134 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1650000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>185925</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5469913.5</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>321600</v>
-      </c>
-      <c r="G3" s="2">
-        <v>9461472</v>
+        <v>75</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1810000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>85425</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2513203.5</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>168000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>29939</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1">
-        <v>391.15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20.81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1">
-        <v>239473.84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2">
-        <v>77.52</v>
-      </c>
-      <c r="F2" s="2">
-        <v>47.57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2">
-        <v>108489.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <v>135.13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>23.19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2">
-        <v>92192.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2">
-        <v>477.24</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2">
-        <v>178313.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2">
-        <v>294200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1">
-        <v>300000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1450000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2">
-        <v>160000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2900000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1650000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1810000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2">
-        <v>168000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2">
+        <v>950000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>950000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -113,22 +113,25 @@
     <t>tmp4bd81</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BENZ</t>
   </si>
   <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
+    <t>詹蔡碧蘭</t>
+  </si>
+  <si>
     <t>92年11月15曰</t>
   </si>
   <si>
+    <t>100年09月15曰</t>
+  </si>
+  <si>
     <t>(超過五年請領國外車牌）</t>
-  </si>
-  <si>
-    <t>LEXUS</t>
-  </si>
-  <si>
-    <t>詹蔡碧蘭</t>
-  </si>
-  <si>
-    <t>100年09月15曰</t>
   </si>
   <si>
     <t>1323900(11領國外車牌）</t>
@@ -913,38 +916,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>5800</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>5800</v>
@@ -953,27 +977,48 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>3500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -982,7 +1027,28 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1000,22 +1066,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1023,22 +1089,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1046,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1069,13 +1135,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1092,13 +1158,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1115,13 +1181,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1136,13 +1202,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1167,13 +1233,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>391.15</v>
@@ -1182,7 +1248,7 @@
         <v>20.81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1">
         <v>239473.84</v>
@@ -1193,13 +1259,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>391.15</v>
@@ -1208,7 +1274,7 @@
         <v>20.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>239473.84</v>
@@ -1219,13 +1285,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>77.52</v>
@@ -1234,7 +1300,7 @@
         <v>47.57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>108489.97</v>
@@ -1245,13 +1311,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>135.13</v>
@@ -1260,7 +1326,7 @@
         <v>23.19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>92192.42</v>
@@ -1271,13 +1337,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>477.24</v>
@@ -1286,7 +1352,7 @@
         <v>12.7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <v>178313.09</v>
@@ -1307,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1316,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1324,7 +1390,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1333,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1341,13 +1407,13 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>294200</v>
@@ -1368,22 +1434,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1">
         <v>300000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1391,22 +1457,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1414,22 +1480,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1437,22 +1503,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1460,22 +1526,22 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2">
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1493,22 +1559,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>1650000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1516,22 +1582,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1539,22 +1605,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1562,22 +1628,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1585,22 +1651,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1608,22 +1674,22 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,9 @@
     <t>tmp4bd81</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>1323900(11領國外車牌）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -882,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -968,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>5800</v>
@@ -977,16 +983,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1012,25 +1018,25 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>3500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1066,22 +1072,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1089,22 +1095,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1112,13 +1118,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1135,13 +1141,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1158,13 +1164,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1181,13 +1187,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1202,13 +1208,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1233,13 +1239,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>391.15</v>
@@ -1248,7 +1254,7 @@
         <v>20.81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>239473.84</v>
@@ -1259,13 +1265,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>391.15</v>
@@ -1274,7 +1280,7 @@
         <v>20.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>239473.84</v>
@@ -1285,13 +1291,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>77.52</v>
@@ -1300,7 +1306,7 @@
         <v>47.57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
         <v>108489.97</v>
@@ -1311,13 +1317,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>135.13</v>
@@ -1326,7 +1332,7 @@
         <v>23.19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>92192.42</v>
@@ -1337,13 +1343,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2">
         <v>477.24</v>
@@ -1352,7 +1358,7 @@
         <v>12.7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
         <v>178313.09</v>
@@ -1373,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1382,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1390,7 +1396,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1399,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1407,13 +1413,13 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>294200</v>
@@ -1434,22 +1440,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>300000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1457,22 +1463,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1480,22 +1486,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1503,22 +1509,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1526,22 +1532,22 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1559,22 +1565,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>1650000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1582,22 +1588,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1605,22 +1611,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1628,22 +1634,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1651,22 +1657,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1674,22 +1680,22 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -10,7 +10,7 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="現金" sheetId="4" r:id="rId4"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
     <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -143,22 +143,13 @@
     <t>car</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
   <si>
     <t>FIRSTGENERALBANK</t>
@@ -186,6 +177,9 @@
   </si>
   <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>AEGONMOtEYMARKET</t>
@@ -1064,13 +1058,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1081,147 +1075,236 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5469913.5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9461472</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2513203.5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1760</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>185925</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5469913.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>29939</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1760</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
-        <v>321600</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9461472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>85425</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2513203.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>503</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>29939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1760</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
         <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +1322,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>391.15</v>
@@ -1254,7 +1337,7 @@
         <v>20.81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1">
         <v>239473.84</v>
@@ -1265,13 +1348,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>391.15</v>
@@ -1280,7 +1363,7 @@
         <v>20.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>239473.84</v>
@@ -1291,13 +1374,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>77.52</v>
@@ -1306,7 +1389,7 @@
         <v>47.57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <v>108489.97</v>
@@ -1317,13 +1400,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>135.13</v>
@@ -1332,7 +1415,7 @@
         <v>23.19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <v>92192.42</v>
@@ -1343,13 +1426,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>477.24</v>
@@ -1358,7 +1441,7 @@
         <v>12.7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <v>178313.09</v>
@@ -1379,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1388,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1396,7 +1479,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1405,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1413,7 +1496,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1440,22 +1523,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <v>300000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1463,22 +1546,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1486,22 +1569,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1509,22 +1592,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1532,22 +1615,22 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2">
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1568,19 +1651,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>1650000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1591,19 +1674,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1614,19 +1697,19 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1637,19 +1720,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1660,19 +1743,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1683,19 +1766,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -182,28 +182,43 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>AEGONMOtEYMARKET</t>
   </si>
   <si>
+    <t>MSTANLEYMIDCAPGWTH</t>
+  </si>
+  <si>
+    <t>WMCDIVERSIFIEDEQTYVP</t>
+  </si>
+  <si>
+    <t>WMCDIVERSIFIEDGROWVP</t>
+  </si>
+  <si>
     <t>WRLLIFEINS.</t>
   </si>
   <si>
-    <t>MSTANLEYMIDCAPGWTH</t>
-  </si>
-  <si>
-    <t>WMCDIVERSIFIEDEQTYVP</t>
-  </si>
-  <si>
-    <t>WMCDIVERSIFIEDGROWVP</t>
+    <t>fund</t>
   </si>
   <si>
     <t>字畫</t>
   </si>
   <si>
+    <t>皮包</t>
+  </si>
+  <si>
     <t>(無法計算）</t>
   </si>
   <si>
-    <t>皮包</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>LOAN</t>
@@ -1314,47 +1329,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1">
-        <v>391.15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20.81</v>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1">
-        <v>239473.84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>391.15</v>
@@ -1368,19 +1404,40 @@
       <c r="H2" s="2">
         <v>239473.84</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>77.52</v>
@@ -1394,19 +1451,40 @@
       <c r="H3" s="2">
         <v>108489.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>135.13</v>
@@ -1420,19 +1498,40 @@
       <c r="H4" s="2">
         <v>92192.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2">
         <v>477.24</v>
@@ -1445,6 +1544,27 @@
       </c>
       <c r="H5" s="2">
         <v>178313.09</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1454,32 +1574,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1488,15 +1629,36 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1506,6 +1668,27 @@
       </c>
       <c r="E3" s="2">
         <v>294200</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -1535,10 +1718,10 @@
         <v>300000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1546,7 +1729,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1558,10 +1741,10 @@
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1569,22 +1752,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1592,22 +1775,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1615,22 +1798,22 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1651,19 +1834,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>1650000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1674,19 +1857,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1697,19 +1880,19 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1720,19 +1903,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1743,19 +1926,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1766,19 +1949,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
+++ b/legislator/property/output/normal/詹凱臣_2012-04-25_財產申報表_tmp4bd81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -218,76 +218,94 @@
     <t>(無法計算）</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>LOAN</t>
   </si>
   <si>
+    <t>KAISERFEDERALBANK</t>
+  </si>
+  <si>
+    <t>CHASEBANK</t>
+  </si>
+  <si>
     <t>97年09月15闩</t>
   </si>
   <si>
+    <t>96年11月15H</t>
+  </si>
+  <si>
+    <t>93年06月15曰</t>
+  </si>
+  <si>
+    <t>98年06月15日</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>KAISERFEDERALBANK</t>
-  </si>
-  <si>
-    <t>CHASEBANK</t>
-  </si>
-  <si>
-    <t>96年11月15H</t>
-  </si>
-  <si>
-    <t>93年06月15曰</t>
-  </si>
-  <si>
-    <t>98年06月15日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>T&amp;CDEVELOPMBTINC.</t>
   </si>
   <si>
+    <t>T&amp;CDEVELOPMENTINC.</t>
+  </si>
+  <si>
+    <t>FIRSTGENZRALBANK</t>
+  </si>
+  <si>
+    <t>ROYALBUSINESSBANK</t>
+  </si>
+  <si>
+    <t>養樂多（股）有限公司</t>
+  </si>
+  <si>
     <t>51COLUMBIAALISOVIEJOCA.U.S.A51COLUMBIAALISOVIEJOCA.U.S.A</t>
   </si>
   <si>
+    <t>14MASONIRVINECA.U.S.A14MASONIRVINECA.U.S.A</t>
+  </si>
+  <si>
+    <t>ROLANDHEIGHTSCA.U.S.AROLANDHEIGHTSCA.U.S.A</t>
+  </si>
+  <si>
+    <t>LOSANGELESCA.U.S.ALOSANGELESCA.U.S.A</t>
+  </si>
+  <si>
+    <t>臺北市松江路261號3樓</t>
+  </si>
+  <si>
+    <t>86年09月15日</t>
+  </si>
+  <si>
+    <t>98年05月15日</t>
+  </si>
+  <si>
+    <t>100年09月15日</t>
+  </si>
+  <si>
+    <t>99年03月15曰</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>T&amp;CDEVELOPMENTINC.</t>
-  </si>
-  <si>
-    <t>FIRSTGENZRALBANK</t>
-  </si>
-  <si>
-    <t>ROYALBUSINESSBANK</t>
-  </si>
-  <si>
-    <t>養樂多（股）有限公司</t>
-  </si>
-  <si>
-    <t>14MASONIRVINECA.U.S.A14MASONIRVINECA.U.S.A</t>
-  </si>
-  <si>
-    <t>ROLANDHEIGHTSCA.U.S.AROLANDHEIGHTSCA.U.S.A</t>
-  </si>
-  <si>
-    <t>LOSANGELESCA.U.S.ALOSANGELESCA.U.S.A</t>
-  </si>
-  <si>
-    <t>臺北市松江路261號3樓</t>
-  </si>
-  <si>
-    <t>86年09月15日</t>
-  </si>
-  <si>
-    <t>98年05月15日</t>
-  </si>
-  <si>
-    <t>100年09月15日</t>
-  </si>
-  <si>
-    <t>99年03月15曰</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1698,38 +1716,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1">
-        <v>300000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -1741,18 +1780,39 @@
         <v>300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -1764,18 +1824,39 @@
         <v>1450000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1787,18 +1868,39 @@
         <v>160000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1810,10 +1912,31 @@
         <v>2900000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1823,33 +1946,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1650000</v>
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>98</v>
       </c>
@@ -1857,22 +2001,43 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>1650000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>99</v>
       </c>
@@ -1880,22 +2045,43 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>1810000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -1903,22 +2089,43 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>168000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -1926,22 +2133,43 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>50000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -1949,19 +2177,40 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>950000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
